--- a/src/main/resources/excel/user_entity.xlsx
+++ b/src/main/resources/excel/user_entity.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="10875" windowHeight="3600"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="entityDef" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
